--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
